--- a/data/trans_bre/P22_R4-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P22_R4-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.02406063593600148</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3434143872415013</v>
+        <v>0.3434143872415016</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.05117664581164575</v>
@@ -649,7 +649,7 @@
         <v>-0.01174104079524948</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1532664635466856</v>
+        <v>0.1532664635466858</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.233310471453259</v>
+        <v>-1.91616364534671</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.4162249003426154</v>
+        <v>-0.2022871610797689</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.499775686545125</v>
+        <v>-1.422916929790958</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.07070861787787</v>
+        <v>-1.215411190890686</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3456082219177215</v>
+        <v>-0.3117567115157159</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1623515041763045</v>
+        <v>-0.09122056714229435</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5265076755418147</v>
+        <v>-0.5342880137432817</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3674630476291401</v>
+        <v>-0.3763299308684482</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.40357754553882</v>
+        <v>1.647201735569464</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.515989434981546</v>
+        <v>2.485082460247868</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.405268580006621</v>
+        <v>1.328858175281147</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.767028583271392</v>
+        <v>1.768241460381561</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3348017355226354</v>
+        <v>0.3950504667963762</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.644850423133441</v>
+        <v>1.593008399523359</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.010627380510254</v>
+        <v>1.044660810749128</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.264893659854983</v>
+        <v>1.225473530400188</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.009817804361652</v>
+        <v>-1.7937580405238</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.364143304377698</v>
+        <v>-3.286379345140261</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.12492464219695</v>
+        <v>-2.081161244565625</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.903380545751018</v>
+        <v>-2.804166610867317</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1967244515155897</v>
+        <v>-0.1785286230113359</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3379478862300599</v>
+        <v>-0.3352037413737734</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3035829247710261</v>
+        <v>-0.2991554994469977</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2353593303425618</v>
+        <v>-0.2321619689039296</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.1570347286165</v>
+        <v>2.339693886453976</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3631896242900994</v>
+        <v>0.4205562755245387</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.023927541196279</v>
+        <v>0.9210326530273698</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.067714675954575</v>
+        <v>0.9784267854758574</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.274199663892821</v>
+        <v>0.3025620407021195</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05407329382351602</v>
+        <v>0.04857389689061104</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2008321290171708</v>
+        <v>0.1658477265458152</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1085784115592145</v>
+        <v>0.1039497447366481</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.319779607268677</v>
+        <v>-7.792541994949984</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.110491109264144</v>
+        <v>-9.490370264835454</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.644030171628311</v>
+        <v>-3.922423648396228</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.547427995895285</v>
+        <v>-1.128983064917355</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2563630623980537</v>
+        <v>-0.2763245861858707</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3396079303318872</v>
+        <v>-0.3429005757991986</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1655019080378713</v>
+        <v>-0.1399854413033556</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.04081565853026174</v>
+        <v>-0.03466040427736734</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.498564385541005</v>
+        <v>3.21732063339172</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.810647654195252</v>
+        <v>2.303503352732503</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.41135552995494</v>
+        <v>6.885374034675467</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.636067825133246</v>
+        <v>8.338315884276639</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1502173676145746</v>
+        <v>0.1385181824708673</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1287696905532221</v>
+        <v>0.108480261075263</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3091875692199352</v>
+        <v>0.3221993575105563</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3267438378622123</v>
+        <v>0.2970891669466821</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.685821599022457</v>
+        <v>-2.648075752845105</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.877754314752053</v>
+        <v>-3.024213905671273</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.968714747950761</v>
+        <v>-2.011077847511748</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.803673835586292</v>
+        <v>-1.969034018538882</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2335969804748669</v>
+        <v>-0.232839396715865</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2907428879186048</v>
+        <v>-0.3049705231100661</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2172019064354484</v>
+        <v>-0.2191614889726842</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1244992983787057</v>
+        <v>-0.1341942896093529</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5343026149195953</v>
+        <v>0.4056656272892926</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.07938312826015813</v>
+        <v>-0.06902868597468501</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7675362691255071</v>
+        <v>0.8819506867601258</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.372883111251836</v>
+        <v>1.24764376012201</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05577678704253798</v>
+        <v>0.04313493184459179</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.01136897194374365</v>
+        <v>-0.008915777964653102</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1038065891321767</v>
+        <v>0.1206583703498477</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1138611853955706</v>
+        <v>0.100087626449112</v>
       </c>
     </row>
     <row r="16">
